--- a/output/validator/simulated-results.xlsx
+++ b/output/validator/simulated-results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J259"/>
+  <dimension ref="A1:J255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,10 +489,8 @@
           <t>001-smart_agriculture</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -537,18 +535,16 @@
           <t>001-smart_agriculture</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+      <c r="C3" t="n">
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>WiFi devices number match</t>
+          <t>WiFi devices are present in code and not present in blueprint (score 0), also other devices are present but with wrong number</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -585,18 +581,16 @@
           <t>001-smart_agriculture</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+      <c r="C4" t="n">
+        <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Location of LoRa devices is not aligned, just one location for all</t>
+          <t>LoRa gateway location match, LoRa devices locations match in x,y (not in z because all loRa devices has same location), WiFi nodes location match (with some error)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -633,14 +627,12 @@
           <t>001-smart_agriculture</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+      <c r="C5" t="n">
+        <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Location of WiFi devices is partially aligned</t>
+          <t>Traffic duration match (1 hour, 3600 sec), but type (periodic) no information in blueprint</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -678,21 +670,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Traffic duration match, type is periodic but not defined in JSON</t>
+          <t>LoRa devices in JSON blueprint are 8, but in NS-3 code are 7</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -729,14 +719,12 @@
           <t>002-smart_agriculture</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>feature_1.1</t>
-        </is>
+      <c r="C7" t="n">
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LoRa devices number match</t>
+          <t>WiFi devices are present in both JSON blueprint and NS-3 code</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -777,14 +765,12 @@
           <t>002-smart_agriculture</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>feature_2.1</t>
-        </is>
+      <c r="C8" t="n">
+        <v>3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>WiFi devices number match</t>
+          <t>Location coordinates of LoRa and WiFi devices match between JSON blueprint and NS-3 code</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -825,18 +811,16 @@
           <t>002-smart_agriculture</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>feature_3.1</t>
-        </is>
+      <c r="C9" t="n">
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LoRa devices location match</t>
+          <t>Traffic duration in the JSON blueprint is 2 hours, in the NS-3 code is 2 hours (7200 seconds), traffic type is periodic</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -870,21 +854,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>feature_3.2</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>WiFi devices location match</t>
+          <t>LoRa devices in JSON blueprint (11) do not match the number declared in NS-3 code (10)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -918,21 +900,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>feature_4.1</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Traffic duration match</t>
+          <t>There are WiFi devices in NS-3 code but not in the JSON Blueprint</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -966,21 +946,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>feature_4.2</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Traffic type match</t>
+          <t>Location assignment for the LoRa gateway matches, for some LoRa end devices is not mapped to a single coordinate</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1017,18 +995,16 @@
           <t>003-smart_agriculture</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C13" t="n">
+        <v>4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LoRa device count mismatch</t>
+          <t>Traffic duration (3 hours) is equal to simulation time defined in NS-3 code, traffic type (periodic) is also correct</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1062,30 +1038,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>WiFi device count match</t>
+          <t>No LoRa devices found in NS-3 code, while JSON contains LoRa devices.</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1110,30 +1084,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Location assignment partially match</t>
+          <t>WiFi devices are present in NS-3 code, but there is no mention of WiFi devices in JSON.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1158,30 +1130,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Traffic duration match, traffic type partially match</t>
+          <t>Locations are not defined in the NS-3 code, while they are clearly specified in JSON.</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1209,14 +1179,12 @@
           <t>001-smart_agriculture</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C17" t="n">
+        <v>4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>JSON blueprint contains 5 LoRa devices, but NS-3 code has no LoRa device</t>
+          <t>Traffic duration and type are not specified in the NS-3 code, while they are indicated in the JSON.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1254,17 +1222,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>JSON blueprint has no WiFi device, but NS-3 code has 2 wifi devices</t>
+          <t>LoRa devices are present in JSON but not mentioned in NS3 code</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1302,17 +1268,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NS-3 code has no location assignment</t>
+          <t>WiFi devices are not present in JSON but are present in NS3 code</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1350,17 +1314,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NS-3 code has no traffic configuration</t>
+          <t>No location information in NS3 code to match JSON</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1401,14 +1363,12 @@
           <t>002-smart_agriculture</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C21" t="n">
+        <v>4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>JSON has 8 LoRa endpoints and 1 gateway, NS-3 has 0 LoRa devices</t>
+          <t>No traffic or duration info in NS3 code to match JSON</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1446,17 +1406,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>JSON has 0 Wifi devices, NS-3 has 2 Wifi devices</t>
+          <t>LoRa devices present in JSON, but not in NS-3 code.</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1494,17 +1452,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>No location matching possible since there are no LoRa devices in the NS-3 code</t>
+          <t>WiFi devices not explicitly mentioned in JSON, present in the NS3 code</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1542,17 +1498,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Traffic details cannot be verified since LoRa devices are not present in NS-3 code and no traffic generation is performed by WiFi nodes</t>
+          <t>No location information in NS-3 output</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1593,14 +1547,12 @@
           <t>003-smart_agriculture</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C25" t="n">
+        <v>4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>JSON blueprint contains 1 gateway and 11 lora devices, NS-3 code has 0</t>
+          <t>No traffic info from NS-3 code, test duration missing also</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1638,17 +1590,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>JSON blueprint does not contains wifi devices, NS-3 code contains 2</t>
+          <t>LoRa devices are present in JSON but not in NS-3 code</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1686,17 +1636,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Location information is present in JSON, but no location setting is performed in NS-3 code</t>
+          <t>WiFi devices are not present in JSON but are in NS-3 code</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1734,17 +1682,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Traffic duration and type are defined in JSON blueprint, but not used in NS-3 code</t>
+          <t>Location data present in JSON but not used in NS-3 code</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1785,14 +1731,12 @@
           <t>001-smart_agriculture</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C29" t="n">
+        <v>4</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>JSON contains 5 LoRa devices, NS-3 code does not have any LoRa devices</t>
+          <t>Traffic duration and type not present in NS-3 code</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1830,21 +1774,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>JSON does not specify WiFi devices and IP address are allocated to wifiStaNode, but the exact number cannot be inferred, so it is partially correct</t>
+          <t>JSON blueprint contains LoRa devices, but NS-3 code does not mention them</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1878,17 +1820,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Locations in the blueprint are specified, but NS-3 code does not provide location information. Locations are identical in the blueprint for all lora nodes, so this is not enough to check the feature is properly implemented</t>
+          <t>JSON blueprint does not contains WiFi devices, and NS-3 code mention them</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1926,17 +1866,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Traffic duration is specified in the JSON blueprint as 1 hour, the NS-3 code does not provide traffic data</t>
+          <t>JSON blueprint contains coordinates information for LoRa devices, but NS-3 code does not handle them</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1977,14 +1915,12 @@
           <t>002-smart_agriculture</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C33" t="n">
+        <v>4</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>JSON has 8 LoRa endpoints and 1 gateway, but NS-3 code does not define any LoRa device</t>
+          <t>JSON blueprint contains traffic duration information, but NS-3 code does not handle it</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -2022,17 +1958,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>JSON has no WiFi devices, and NS-3 code has 2 Wifi devices, so this is an unmatch</t>
+          <t>LoRa devices are defined in JSON but not present in NS-3 code</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -2070,17 +2004,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>JSON defines geo locations, but these are not implemented in the NS-3 code</t>
+          <t>WiFi devices are not defined in JSON but are present in NS-3 code</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -2118,17 +2050,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>JSON defines a test duration of 2 hours, but NS-3 code does not include traffic generation</t>
+          <t>No location data are present in NS-3 code</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -2169,14 +2099,12 @@
           <t>003-smart_agriculture</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C37" t="n">
+        <v>4</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>JSON has 11 LoRa devices, NS-3 has 0</t>
+          <t>No traffic duration/type data is present in NS-3 code</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2214,17 +2142,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>JSON has 0 WiFi devices, NS-3 has 2</t>
+          <t>No LoRa devices implemented in NS-3 code</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2232,7 +2158,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2262,25 +2188,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>JSON has coordinates for all devices, NS-3 has no location information</t>
+          <t>WiFi devices are not defined in JSON and not implemented in NS-3 code</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2310,17 +2234,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>JSON has traffic duration and type description for LoRa, NS-3 has no traffic description</t>
+          <t>Location assignment not implemented in NS-3 code, but present in JSON</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2328,7 +2250,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2361,14 +2283,12 @@
           <t>001-smart_agriculture</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C41" t="n">
+        <v>4</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LoRa devices number in JSON is 5, NS-3 code has no LoRa device</t>
+          <t>Traffic duration and type not implemented in NS-3 code, but present in JSON</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2406,21 +2326,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>WiFi devices number in JSON is 0, NS-3 code has no WiFi device</t>
+          <t>No LoRa devices are present in the NS-3 code.</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2454,21 +2372,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Location assignment is not performed, no mobility defined</t>
+          <t>WiFi devices are not specified in the JSON blueprint, while WiFi is included in NS3 code</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2502,17 +2418,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>3</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Traffic simulation is not defined in NS-3 code</t>
+          <t>Location assignment is not present in NS-3 code</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2553,14 +2467,12 @@
           <t>002-smart_agriculture</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C45" t="n">
+        <v>4</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LoRa devices count mismatch</t>
+          <t>Traffic duration and type are not present in NS-3 code</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2598,21 +2510,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>No WiFi devices declared in JSON and NS-3 code</t>
+          <t>LoRa devices are not present in the NS-3 source code</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2646,17 +2556,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>No location assignment in NS-3 code</t>
+          <t>WiFi devices are not present in the JSON blueprint, but present in the NS-3</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2694,17 +2602,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>No traffic defined in NS-3 code</t>
+          <t>Location assignment is not implemented in the NS-3 source code</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2745,14 +2651,12 @@
           <t>003-smart_agriculture</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C49" t="n">
+        <v>4</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LoRa devices number mismatch</t>
+          <t>Traffic duration and type are not implemented in the NS-3 source code</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2790,17 +2694,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>No WiFi devices in NS-3 code, while not present in JSON</t>
+          <t>LoRa devices in JSON match the 5 LoRa devices in NS-3 code</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2808,12 +2710,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2838,17 +2740,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>No location assignment in NS-3 code</t>
+          <t>WiFi devices in JSON does not exist, but in NS-3 code the WiFi devices are 1 AP and 2 Stations</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2856,12 +2756,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2886,30 +2786,28 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>3</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>No traffic duration or type configuration in NS-3 code</t>
+          <t xml:space="preserve">Location assignment for LoRa GW and devices match in JSON and NS3, but wifi devices locations are not in JSON. </t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2937,18 +2835,16 @@
           <t>001-smart_agriculture</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C53" t="n">
+        <v>4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LoRa device count matches</t>
+          <t>Traffic duration match, traffic type LoRa match. WiFi traffic is missing in JSON</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2982,17 +2878,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>WiFi device count matches</t>
+          <t>LoRa devices in JSON match number of devices in NS-3</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -3030,17 +2924,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LoRa and WiFi location assignment matches</t>
+          <t>No WiFi devices in JSON and in NS-3</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -3078,21 +2970,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Traffic duration and type matches</t>
+          <t>Location assignment match between JSON and NS-3</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3129,18 +3019,16 @@
           <t>002-smart_agriculture</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C57" t="n">
+        <v>4</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LoRa devices count matches</t>
+          <t>Traffic duration and type match between JSON and NS-3</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3174,17 +3062,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>No WiFi devices in JSON and NS3 code</t>
+          <t>The JSON blueprint specifies 11 LoRa devices, and the NS-3 code creates 11 LoRa end devices</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -3222,21 +3108,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">End devices location are not set from JSON, only z axis is fixed </t>
+          <t>The JSON blueprint does not specify WiFi devices, while the NS-3 code has Wifi devices</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3270,17 +3154,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>3</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Traffic duration matches, type is periodic</t>
+          <t>The gateway location in the JSON blueprint (38.10351066811096, 13.3459399220741, 30.0) is present in NS-3 code</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -3321,18 +3203,16 @@
           <t>003-smart_agriculture</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C61" t="n">
+        <v>3</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LoRa devices number match</t>
+          <t>The LoRa endpoints locations in the JSON blueprint are not present in NS-3 code. Instead, they are generated using a disc position allocator. Although, the locations of the WiFi STA nodes and WiFi AP are correctly set according to the JSON</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3369,18 +3249,16 @@
           <t>003-smart_agriculture</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+      <c r="C62" t="n">
+        <v>4</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>WiFi devices number match</t>
+          <t>The JSON blueprint does not specify a traffic duration or type for LoRa devices but the code use a constant packet size and period (60s)</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3417,18 +3295,16 @@
           <t>003-smart_agriculture</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+      <c r="C63" t="n">
+        <v>4</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">LoRa locations do not fully match, some are grouped in one point </t>
+          <t>The JSON blueprint does not specify a traffic duration or type for WiFi devices but the code use a constant rate and period</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3462,25 +3338,23 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Traffic duration is 10 seconds for WiFi (mismatch with json that does not specify), LoRa traffic matches with 3 hours</t>
+          <t>LoRa devices number matches between JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3513,14 +3387,12 @@
           <t>001-smart_agriculture</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>feature_1.1</t>
-        </is>
+      <c r="C65" t="n">
+        <v>2</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LoRa devices number match</t>
+          <t>No WiFi devices in JSON and NS-3</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -3561,14 +3433,12 @@
           <t>001-smart_agriculture</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>feature_2.1</t>
-        </is>
+      <c r="C66" t="n">
+        <v>3</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>No WiFi devices in JSON and code</t>
+          <t>Location coordinates match between JSON and NS-3</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -3609,14 +3479,12 @@
           <t>001-smart_agriculture</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>feature_3.1</t>
-        </is>
+      <c r="C67" t="n">
+        <v>4</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LoRa devices locations match</t>
+          <t>Traffic duration (1 hour) and periodic traffic match between JSON and NS-3</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -3654,17 +3522,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>feature_3.2</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LoRa gateway locations match</t>
+          <t>All 8 LoRa devices defined in JSON are present in NS-3 code</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -3702,17 +3568,15 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>feature_4.1</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Traffic duration match</t>
+          <t>No WiFi devices are present in the JSON and NS-3 code, match!</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -3750,17 +3614,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>feature_4.2</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>3</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Traffic type match (periodic)</t>
+          <t>All location assignments match between JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -3801,14 +3663,12 @@
           <t>002-smart_agriculture</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C71" t="n">
+        <v>4</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LoRa device count matches</t>
+          <t>Traffic duration is 2 hours in JSON, and 7200 seconds in NS-3 code,  Traffic type in JSON is described as sensor data, and in NS3 code is periodic traffic</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -3846,17 +3706,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>No WiFi devices in JSON and NS-3</t>
+          <t>LoRa devices count match</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -3894,17 +3752,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Location assignment matches the coordinates in JSON</t>
+          <t>No WiFi devices in JSON and NS3</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3942,17 +3798,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>3</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Traffic duration and type match (periodic)</t>
+          <t>Location coordinates match</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -3993,14 +3847,12 @@
           <t>003-smart_agriculture</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C75" t="n">
+        <v>4</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LoRa device count match</t>
+          <t>Traffic duration and type match</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -4038,17 +3890,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>No WiFi devices in JSON, no WiFi code in NS3</t>
+          <t>The JSON blueprint specifies 5 LoRa devices, and the NS-3 code correctly creates 5 LoRa end devices.</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -4056,7 +3906,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4086,25 +3936,23 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LoRa device location matches with JSON</t>
+          <t>The JSON blueprint does not specify any WiFi devices, but NS-3 creates a 1 AP and 2 STA devices</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4134,25 +3982,23 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>3</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Traffic duration and periodic traffic matches JSON</t>
+          <t>The JSON blueprint and NS-3 source code have a full match for gateway position. The LoRa end devices have a non-deterministic placement in the source code, but all share the same position, while the JSON blueprint defines explicit latitude/longitude for each of them.</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4185,18 +4031,16 @@
           <t>001-smart_agriculture</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C79" t="n">
+        <v>4</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LoRa number of devices match</t>
+          <t>The JSON blueprint doesn't define traffic durations explicitly, but indicates that the experiment duration is 1 hour. The NS-3 code sends data periodically every 60 seconds for the entire simulation time (1 hour) but there is also a traffic generation on wifi for 10 secs. Since the main traffic is on LoRa, we focus on this one, and the duration matches the "experiment_duration" field.</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4230,17 +4074,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>WiFi number of devices match</t>
+          <t>LoRa devices match between JSON and NS-3</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -4278,17 +4120,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Location assignment match</t>
+          <t>WiFi devices match between JSON and NS-3</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -4326,17 +4166,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>001-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>3</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Traffic duration and type match, periodic traffic</t>
+          <t>Location assignment matches for all devices</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -4377,14 +4215,12 @@
           <t>002-smart_agriculture</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C83" t="n">
+        <v>4</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LoRa devices count match</t>
+          <t>Traffic duration is 2 hours and periodic transmission matches</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -4422,17 +4258,15 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>WiFi devices count match</t>
+          <t>LoRa devices in JSON match with the ones created in NS-3 code</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -4470,21 +4304,19 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LoRa and WiFi device coordinates match</t>
+          <t>WiFi devices in JSON are not present, but WiFi devices are created in NS-3 code</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4518,21 +4350,19 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>002-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_agriculture</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>3</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Traffic duration and type match</t>
+          <t>Location assignment of LoRa gateway match, but not end-devices, WiFi devices location assigned, but not from JSON</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4569,14 +4399,12 @@
           <t>003-smart_agriculture</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C87" t="n">
+        <v>4</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LoRa devices count match</t>
+          <t>Traffic duration in JSON is 3 hours (10800 seconds), which matches the simulation time. Traffic type is periodic, which match with NS-3</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -4614,17 +4442,15 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>WiFi devices count match</t>
+          <t>LoRa devices number in JSON matches with NS-3 code</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -4632,7 +4458,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4662,25 +4488,23 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Location assignment match</t>
+          <t>WiFi devices number in JSON matches with NS-3 code</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4710,17 +4534,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>003-smart_agriculture</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Traffic duration and type match</t>
+          <t>Location of LoRa and WiFi nodes match between JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -4728,7 +4550,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4761,14 +4583,12 @@
           <t>001-smart_city</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C91" t="n">
+        <v>4</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LoRa device count match</t>
+          <t>Traffic duration and type matches between JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -4806,17 +4626,15 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>WiFi device count match</t>
+          <t>LoRa devices count match</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -4854,17 +4672,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>2</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LoRa and WiFi location match</t>
+          <t>WiFi devices count match</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -4902,21 +4718,19 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>3</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LoRa and WiFi traffic match</t>
+          <t>Location of all devices matches</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -4953,18 +4767,16 @@
           <t>002-smart_city</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C95" t="n">
+        <v>4</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LoRa device count matches</t>
+          <t>Traffic duration and type partially match</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4998,17 +4810,15 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>WiFi device count matches</t>
+          <t>LoRa device count matches</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -5046,17 +4856,15 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Location assignment matches for LoRa gateways, and WiFi devices</t>
+          <t>WiFi device count matches</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -5094,21 +4902,19 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Traffic duration matches, LoRa traffic type is periodic but not according to JSON</t>
+          <t>Location of gateways and AP matches, but not all end devices</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -5145,18 +4951,16 @@
           <t>003-smart_city</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C99" t="n">
+        <v>4</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LoRa device count match</t>
+          <t>Traffic duration and type for LoRa match, but not the WiFi</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -5190,30 +4994,28 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>WiFi device count match</t>
+          <t>No LoRa devices are present in the NS-3 code, but are defined in the JSON blueprint</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5238,30 +5040,28 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LoRa and WiFi locations match</t>
+          <t>WiFi stations are present in both NS-3 code and the JSON blueprint</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5286,30 +5086,28 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>3</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Traffic duration and type match</t>
+          <t>Location assignments are not present in the NS-3 code, only IP addresses are, so we cannot verify the location</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5337,14 +5135,12 @@
           <t>001-smart_city</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C103" t="n">
+        <v>4</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>JSON has 2 LoRa devices, NS-3 code has 0</t>
+          <t>Traffic duration and type are not present in the NS-3 code, so we cannot verify the traffic</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -5382,21 +5178,19 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>JSON has 1 WiFi station device, NS-3 code has 2</t>
+          <t>LoRa devices are declared in JSON but not found in NS3 code</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5430,21 +5224,19 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Location of WiFi station in JSON does not match NS-3 code, that was not provided</t>
+          <t>WiFi devices are declared in JSON and IP addresses are partially found in NS3 code</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -5478,17 +5270,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>3</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Traffic flow in JSON is defined with UDP and 1Mbps, but no traffic information was provided in the NS-3 output</t>
+          <t>Location information not available in NS-3 code output</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -5529,14 +5319,12 @@
           <t>002-smart_city</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C107" t="n">
+        <v>4</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>JSON has 4 LoRa endpoints, NS-3 code has no LoRa devices</t>
+          <t>Traffic type and duration not available in NS-3 code output</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -5574,21 +5362,19 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>JSON has 3 WiFi stations, NS-3 code has 2 WiFi devices</t>
+          <t>No LoRa devices are implemented in the NS-3 code, while the blueprint contains LoRa devices</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -5622,17 +5408,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>JSON has coordinates for devices, but not included in NS-3 output</t>
+          <t>No WiFi devices are implemented in the NS-3 code, while the blueprint contains WiFi devices</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -5670,17 +5454,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>3</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>JSON has detailed traffic description, not present in NS-3 output</t>
+          <t>No location assignments are implemented in the NS-3 code, location are contained in blueprint</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -5721,14 +5503,12 @@
           <t>003-smart_city</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C111" t="n">
+        <v>4</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>The JSON blueprint specifies 2 LoRa gateways and 4 LoRa endpoints. The provided NS-3 code snippet does not contain any output, so it is not possible to verify the number of LoRa devices and their creation. Therefore, there is no way to verify the number of LoRa devices in the NS-3 code</t>
+          <t>No traffic generation or type are implemented in the NS-3 code, traffic is described in blueprint</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -5766,17 +5546,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>The JSON blueprint specifies 2 WiFi access points and 3 WiFi stations. The provided NS-3 code snippet does not contain any output, so it is not possible to verify the number of WiFi devices and their creation. Therefore, there is no way to verify the number of WiFi devices in the NS-3 code</t>
+          <t>No LoRa devices found in NS-3 code, while present in JSON blueprint</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -5814,21 +5592,19 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>The JSON blueprint provides precise geo-coordinates for all devices. The NS-3 code snippet does not contain any output, so it is not possible to verify device location assignment. Therefore, there is no way to verify the location assignment in the NS-3 code</t>
+          <t>WiFi devices present in both JSON blueprint and NS-3 code, but mismatch in number of stations (2 in code 1 in JSON) and ip assignments</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5862,17 +5638,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>3</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>The JSON blueprint defines specific traffic patterns and durations for different devices. The NS-3 code snippet does not contain any output, so it is not possible to verify traffic patterns and durations. Therefore, there is no way to verify the traffic duration and type in the NS-3 code</t>
+          <t>Location assignment is not present in NS-3 code. No way to verify correctness</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -5913,14 +5687,12 @@
           <t>001-smart_city</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C115" t="n">
+        <v>4</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>JSON blueprint has 2 LoRa devices, but NS-3 code doesn't show any LoRa device</t>
+          <t>Traffic flow information is not present in NS-3 code</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -5958,21 +5730,19 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>JSON blueprint has 1 WiFi station, but NS-3 code presents 2 WiFi stations based on IP addresses</t>
+          <t>JSON blueprint defines LoRa devices but NS-3 code has no LoRa implementation</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -6006,21 +5776,19 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>2</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>JSON blueprint specifies locations for all devices, but NS-3 code doesn't include location information</t>
+          <t>JSON blueprint defines WiFi devices and NS-3 has WiFi device IPs, but it is not sure they are correctly implemented</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -6054,17 +5822,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>3</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>JSON blueprint includes traffic duration and type for LoRa and WiFi, but NS-3 code does not provide this information</t>
+          <t>Location assignment (coordinates) is not present in NS-3 output so unmatch</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -6105,14 +5871,12 @@
           <t>002-smart_city</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C119" t="n">
+        <v>4</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>JSON blueprint defines 4 LoRa endpoints, but no LoRa devices are present in the NS-3 code</t>
+          <t>Traffic duration and type information is not present in NS-3 output, so unmatch</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -6150,21 +5914,19 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>JSON blueprint defines 3 WiFi stations, the NS-3 output reports only 2 devices</t>
+          <t>No LoRa devices are instantiated in the NS-3 code</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -6198,17 +5960,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>2</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>The coordinates in the JSON are not reported in the NS3 log</t>
+          <t>No WiFi devices are instantiated in the NS-3 code</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -6246,17 +6006,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>3</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>The NS-3 code output does not indicate any traffic duration or type</t>
+          <t>No location information is parsed from the JSON and applied to the nodes in the NS-3 code</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -6297,18 +6055,16 @@
           <t>003-smart_city</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C123" t="n">
+        <v>4</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LoRa devices count match (2 gateways, 4 endpoints)</t>
+          <t>No traffic parameters are parsed from the JSON and applied to the nodes in the NS-3 code</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -6342,25 +6098,23 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>WiFi devices count match (2 access points, 3 stations)</t>
+          <t>LoRa devices are present in JSON but not configured in NS-3 code</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -6390,25 +6144,23 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>2</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Location assignment verification pending, manual check required</t>
+          <t>WiFi devices are present in JSON and corresponding module is included in NS-3</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -6438,25 +6190,23 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>3</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Traffic duration and type check needs manual analysis of ns3 code</t>
+          <t>Location assignment is not implemented in NS-3 code</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -6489,14 +6239,12 @@
           <t>001-smart_city</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C127" t="n">
+        <v>4</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>LoRa devices number mismatch</t>
+          <t>Traffic duration and type is not implemented in NS-3 code</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -6534,21 +6282,19 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>WiFi devices number mismatch</t>
+          <t>LoRa devices in JSON match the ones in the NS-3 code.</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -6582,21 +6328,19 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Location assignment mismatch</t>
+          <t>WiFi devices in JSON match the ones in the NS-3 code.</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -6630,21 +6374,19 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>3</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Traffic duration and type mismatch</t>
+          <t>Location assignments in JSON match the ones in the NS-3 code.</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -6681,14 +6423,12 @@
           <t>002-smart_city</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C131" t="n">
+        <v>4</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>LoRa devices count match</t>
+          <t>Traffic duration and type in JSON match the ones in the NS-3 code.</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -6726,17 +6466,15 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>WiFi devices count match</t>
+          <t>LoRa devices match between blueprint and code</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -6774,17 +6512,15 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>2</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Location assignment matches</t>
+          <t>WiFi devices match between blueprint and code</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -6822,21 +6558,19 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>3</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Traffic duration and type match</t>
+          <t>Location assignments in blueprint match with the code</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6873,14 +6607,12 @@
           <t>003-smart_city</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C135" t="n">
+        <v>4</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>LoRa devices count match</t>
+          <t>Traffic types and duration match between blueprint and code</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -6918,17 +6650,15 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>WiFi devices count match</t>
+          <t>LoRa devices number match</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -6936,12 +6666,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6966,17 +6696,15 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>2</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Location of devices match</t>
+          <t>WiFi devices number match</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -6984,12 +6712,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -7014,30 +6742,28 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>3</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Traffic and duration match</t>
+          <t>Location of LoRa devices and Gateway, and WiFi AP match, while WiFi station not fully matched</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -7065,18 +6791,16 @@
           <t>001-smart_city</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C139" t="n">
+        <v>4</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>LoRa device count matches</t>
+          <t>Traffic type (periodic) and duration are partially matched, duration is 1 hour instead of 10 seconds</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -7110,17 +6834,15 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>WiFi device count matches</t>
+          <t>LoRa devices in JSON match the number of devices in the NS-3 code</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -7158,21 +6880,19 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>2</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>LoRa and WiFi node locations match</t>
+          <t>WiFi devices in JSON match the number of devices in the NS-3 code</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -7206,17 +6926,15 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>3</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>LoRa traffic duration and type matches, WiFi matches</t>
+          <t>Location assignments for LoRa gateways and WiFi APs/STAs match between JSON and NS-3</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -7257,18 +6975,16 @@
           <t>002-smart_city</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C143" t="n">
+        <v>4</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>LoRa devices count match</t>
+          <t>Traffic duration and type for both LoRa and WiFi devices match partially</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -7302,17 +7018,15 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>WiFi devices count match</t>
+          <t>LoRa devices count in JSON (4) matches the one in NS-3 code</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -7350,21 +7064,19 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>2</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>LoRa and WiFi location almost match</t>
+          <t>WiFi devices count in JSON (2 AP + 3 STA) matches the one in NS-3 code</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -7398,21 +7110,19 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>3</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>LoRa traffic match, WiFi traffic is different</t>
+          <t>LoRa gateways and WiFi AP location match in JSON and NS-3, some LoRa endpoints coordinates dont match</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -7449,18 +7159,16 @@
           <t>003-smart_city</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C147" t="n">
+        <v>4</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>LoRa devices in JSON (4) match with NS-3 (4)</t>
+          <t>LoRa traffic in NS3 is constant each 60 sec, but in JSON there is also "event based" and "periodic every 5 minutes", some WiFi traffic conditions match</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -7494,17 +7202,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>WiFi devices in JSON (2 AP + 3 STA) match with NS-3 (2 AP + 3 STA)</t>
+          <t>LoRa devices number match and are present</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -7512,7 +7218,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -7542,17 +7248,15 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>2</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>LoRa and WiFi devices locations match with NS-3</t>
+          <t>WiFi devices number match and are present</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -7560,7 +7264,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -7590,25 +7294,23 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>3</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>LoRa traffic duration is 1 minute (60 seconds) in JSON, and 60 seconds in NS-3. WiFi traffic flow at 1 Mbps is present only for STA-002, but on JSON is requested for STA-001</t>
+          <t>Location coordinates match for all devices</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -7641,14 +7343,12 @@
           <t>001-smart_city</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+      <c r="C151" t="n">
+        <v>4</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>LoRa devices number matches</t>
+          <t>Traffic duration (1 hour) and type (periodic at 1min for LoRa, UDP at 1Mbps for Wifi) match</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -7686,17 +7386,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>WiFi devices number matches</t>
+          <t>LoRa devices number match</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -7734,17 +7432,15 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>2</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Location of LoRa and WiFi devices matches</t>
+          <t>WiFi devices number match</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -7782,17 +7478,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>3</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Traffic duration and type matches</t>
+          <t>Location assignments match for both LoRa and WiFi</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -7833,18 +7527,16 @@
           <t>002-smart_city</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>feature_1.1</t>
-        </is>
+      <c r="C155" t="n">
+        <v>4</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>LoRa devices number match</t>
+          <t>Traffic types and duration match. note: LoRa is constant interval, but not event based. WiFi matches</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -7878,17 +7570,15 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>feature_2.1</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>WiFi devices number match</t>
+          <t>LoRa devices count match</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -7926,17 +7616,15 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>feature_3.1</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>2</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>LoRa and WiFi Location assignment match</t>
+          <t>WiFi devices count match</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -7974,17 +7662,15 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>feature_4.1</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>3</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>LoRa traffic duration and type match</t>
+          <t>Location assignments match in both LoRa and WiFi devices</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -8022,17 +7708,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>feature_4.2</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>4</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>WiFi traffic duration and type match</t>
+          <t>Traffic duration and type match for both LoRa and WiFi devices</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -8070,17 +7754,15 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>LoRa devices number match</t>
+          <t>LoRa devices match the number and presence</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -8088,7 +7770,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -8118,17 +7800,15 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>2</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>WiFi devices number match</t>
+          <t>WiFi devices match the number and presence</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -8136,7 +7816,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -8166,17 +7846,15 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>3</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>LoRa and WiFi location match</t>
+          <t>Location of all LoRa and WiFi devices match the coordinates</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -8184,7 +7862,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -8214,17 +7892,15 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_city</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>4</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Traffic duration match and type match for all LoRa and WiFi devices</t>
+          <t>Traffic duration and type match the description</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -8232,7 +7908,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -8262,21 +7938,19 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>LoRa device count matches (2 in JSON, 2 in code)</t>
+          <t>LoRa devices number match, but not all details (e.g., spreading factors)</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -8310,17 +7984,15 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>2</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>WiFi device count matches (1 AP and 1 STA in JSON, 1 AP and 1 STA in code)</t>
+          <t>WiFi devices number match,  all device types are present (AP and STA)</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -8358,21 +8030,19 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>3</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>LoRa and WiFi devices coordinates match, only gateway coordinates are different. Other devices are at 0,0 position</t>
+          <t>Location assignments match</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -8406,17 +8076,15 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>001-smart_city</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_city</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>4</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>LoRa devices transmit each 60s, and WiFi device has UDP flow at 1Mbps, as described in JSON, experiment duration is 1 hour</t>
+          <t>Traffic duration and type match for LoRa and WiFi</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -8454,17 +8122,15 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>LoRa devices number match</t>
+          <t>LoRa devices count matches</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -8502,17 +8168,15 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>2</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>WiFi devices number match</t>
+          <t>WiFi devices count matches</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -8550,21 +8214,19 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>3</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Location assignment for LoRa and WiFi match</t>
+          <t>Location assignment matches for LoRa and WiFi devices</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -8598,21 +8260,19 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>002-smart_city</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_city</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>4</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Traffic duration and type for LoRa and WiFi match</t>
+          <t>Traffic type matches, duration is ok, but not fully precise</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -8646,17 +8306,15 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>LoRa devices number match</t>
+          <t>No LoRa devices in JSON and in NS3 code</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -8664,7 +8322,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -8694,17 +8352,15 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>2</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>WiFi devices number match</t>
+          <t>WiFi devices in JSON and NS3 code match in number</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -8712,7 +8368,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -8742,17 +8398,15 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>3</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Location assignment for LoRa and WiFi devices match</t>
+          <t>Location assignment in JSON and NS3 code matches correctly</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -8760,7 +8414,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -8790,25 +8444,23 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>003-smart_city</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>4</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>LoRa traffic duration and type match, Wifi partially match</t>
+          <t>Traffic duration and type in JSON and NS3 code matches mostly, TCP is not implemented</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>gemini-2.0-flash-exp</t>
+          <t>codestral-2501</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -8838,17 +8490,15 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON blueprint and NS-3 code</t>
+          <t>No LoRa devices in either blueprint or source code</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -8886,17 +8536,15 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>2</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Number of WiFi devices (1 AP, 4 STAs) in JSON blueprint match with NS-3 code</t>
+          <t>WiFi devices in blueprint (2 APs and 7 STAs) match the source code</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -8934,17 +8582,15 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>3</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Locations in JSON are defined as "distance from AP", NS-3 code define absolute coordinates, the position match is based on distances, 0,1,5,10,15 meters distances are consistent between NS3 code and JSON blueprint considering the AP is located at 0,0,0 and STA locations are at 10,5,1,15 meters</t>
+          <t>Location coordinates (relative distances) match the blueprint</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -8982,21 +8628,19 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>4</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Traffic duration and type are defined in the JSON blueprint, and corresponding implementation in NS3 code is similar, some differences in protocol (TCP vs UDP), but the start and stop times are mostly correct with small variations</t>
+          <t>Traffic durations, types and start times for each station match source code.</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -9030,17 +8674,15 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON, no LoRa in NS-3</t>
+          <t>No LoRa devices in both JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -9078,17 +8720,15 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>2</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>WiFi devices number match (2 AP, 7 STA)</t>
+          <t>WiFi devices in JSON (1 AP, 7 stations) match NS-3 code (1 AP, 7 stations)</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -9126,17 +8766,15 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>3</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Location in JSON specified as distance from AP, in NS-3  as absolute coordinates, they match. Check ST-001 distance 3m = (3,0,1.5), ST-002 8m=(8,0,1.5)...</t>
+          <t>Location assignments in JSON match with the one set in NS-3 for each device</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -9174,21 +8812,19 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>4</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Traffic duration and type of ST-002,ST-003,SLB-001,SSC-001,STG-001 match, but ST-001 and SDL-001 are TCP and maximum throughtput in JSON, but UDP in NS3 code, with fixed bitrate, score decremented</t>
+          <t xml:space="preserve">Traffic duration and type in JSON match duration and type (TCP/UDP) in NS-3 code, although throughput in JSON is max/fixed and NS-3 set a fixed bitrate.  </t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -9222,17 +8858,15 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON, and no LoRa devices in NS-3</t>
+          <t>No LoRa devices in JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -9240,12 +8874,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9270,30 +8904,28 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Number of WiFi devices (AP and STA) match in JSON and NS-3</t>
+          <t xml:space="preserve">JSON defines 4 WiFi stations, NS-3 code shows only 2 WiFi stations IP addresses </t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9318,30 +8950,28 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>3</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Location assignment in NS-3 code match with distance in JSON, only in 1D dimension, but order match</t>
+          <t>NS-3 code does not provide any location information</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9366,30 +8996,28 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>4</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Traffic durations match, some throughput and protocol mismatch</t>
+          <t>NS-3 code does not provide any traffic information</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>codestral-2501</t>
+          <t>google/codegemma-7b-it</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>small</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9414,17 +9042,15 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON and NS-3</t>
+          <t>No LoRa devices are present in JSON and NS-3</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -9462,21 +9088,19 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>2</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>JSON contains 4 WiFi devices, NS-3 code shows only 2 IP address, some devices are missing</t>
+          <t>JSON contains 7 WiFi stations, NS-3 has 2 stations. The match is partial, but the stations are WiFi</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -9510,17 +9134,15 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>3</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>No location information in NS-3 output</t>
+          <t>Location information is not present in NS-3 output</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -9558,17 +9180,15 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>4</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>No information about traffic in NS-3 output</t>
+          <t>Traffic data not present in NS-3 output</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -9606,17 +9226,15 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON and NS-3</t>
+          <t>No LoRa devices defined in JSON blueprint, match with source code</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -9654,21 +9272,19 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>2</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>JSON defines 7 WiFi devices, but NS-3 code only prints 2 IPs, so we assume 2 devices</t>
+          <t>Only 2 wifi station are configured in ns3 source code, JSON blueprint has 7 WiFi stations</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -9702,21 +9318,19 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>3</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>No explicit coordinates in JSON and NS-3 source code</t>
+          <t>Location assignment is not possible to check since not provided from NS3 source code</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -9750,17 +9364,15 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>4</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>No traffic information in NS-3 code</t>
+          <t>Traffic configuration in source code is not possible to check, traffic is not present in NS-3 source code</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -9798,17 +9410,15 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>No LoRa devices specified in JSON, no check needed</t>
+          <t>No LoRa devices in JSON and NS-3</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -9846,21 +9456,19 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>2</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>JSON specifies 7 WiFi stations, NS-3 code has only 2</t>
+          <t>WiFi devices in JSON (4 stations) do not match with NS-3 (2 stations) that should have IP 192.168.1.103 and 192.168.1.102</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -9894,17 +9502,15 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>3</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>NS-3 code does not contain location info</t>
+          <t>Location is not specified in the NS-3 code provided</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -9942,17 +9548,15 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>4</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>NS-3 code doesn't show traffic configuration</t>
+          <t>Traffic duration and type are not present in the NS-3 output</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -9990,17 +9594,15 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON and NS-3</t>
+          <t>No LoRa devices in JSON and NS3</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -10038,21 +9640,19 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>2</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>JSON has 4 WiFi stations, but NS-3 code show only 2</t>
+          <t>JSON contains 7 Wifi Stations, NS-3 has 2 IPs assigned</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -10086,17 +9686,15 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>3</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Location information not present in NS-3 output</t>
+          <t>No location info in NS-3</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -10134,17 +9732,15 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>4</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Traffic type and duration not specified in NS-3 output</t>
+          <t>No traffic info in NS-3</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -10182,17 +9778,15 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON and NS-3</t>
+          <t>No LoRa devices are present in JSON, so match is fullfilled</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -10230,21 +9824,19 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>2</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>JSON contains 7 WiFi devices, NS-3 code output shows only 2 devices, this is a mismatch.</t>
+          <t>The JSON specifies 7 WiFi stations while the NS-3 code shows only 2 IPs</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -10278,17 +9870,15 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>3</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>NS-3 code does not provide explicit location or distance, so the match score is low</t>
+          <t>Location information present in JSON not present in NS-3 code</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -10326,17 +9916,15 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>4</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>NS-3 code does not show any info about traffic or duration</t>
+          <t>Traffic duration and type are defined in JSON but not present in NS-3 code</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -10374,13 +9962,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -10392,7 +9978,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -10422,25 +10008,23 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>2</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>JSON has 7 WiFi devices, NS-3 code has 2, mismatch</t>
+          <t>WiFi devices match in JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -10470,17 +10054,15 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>3</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>No location data in NS-3, JSON has location info</t>
+          <t>Locations not available in NS-3 code</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -10488,7 +10070,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -10518,17 +10100,15 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>4</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>No traffic information in NS-3, JSON has traffic info for each device</t>
+          <t>Traffic duration/type not available in NS-3 code</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -10536,7 +10116,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>google/codegemma-7b-it</t>
+          <t>codellama/CodeLlama-7b-Instruct-hf</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -10566,21 +10146,19 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON, and also not in NS-3 code</t>
+          <t>No LoRa devices in JSON, NS-3 code includes LoRa modules, unmatch</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -10614,17 +10192,15 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>2</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>4 WiFi stations in JSON, and 4 in NS-3</t>
+          <t>WiFi devices present in JSON, NS-3 code includes WiFi modules, match</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -10662,21 +10238,19 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>3</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Location is not explicitly set by coordinates, but with distance from AP that is not supported by NS-3 code, the distance param is ignored</t>
+          <t>Location is defined in JSON file as string (not coordinates), NS-3 code does not have coordinates, unmatch</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -10710,21 +10284,19 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>4</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Traffic duration and type are correctly set according to the blueprint, even though it uses a single sender and receiver</t>
+          <t>Traffic duration and type defined in JSON, NS-3 code has no traffic definition, unmatch</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -10758,17 +10330,15 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON, NS-3 code doesn't use LoRa</t>
+          <t>No LoRa devices in NS-3 code, but none in JSON blueprint</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -10806,17 +10376,15 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>2</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>7 WiFi devices in JSON, NS-3 code includes wifi-module</t>
+          <t>WiFi devices are present in both JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -10854,17 +10422,15 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>3</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Locations are specified in JSON but not in NS-3 code</t>
+          <t>Location assignment (distance) is not directly coded in NS-3, only distance from the AP is in the JSON</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -10902,17 +10468,15 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>4</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Traffic duration and protocol (TCP/UDP) are specified in JSON, but NS-3 code does not contain traffic setup</t>
+          <t>Traffic duration and type are defined in JSON blueprint, but there are no definition of traffic duration and type in NS-3 SOURCE CODE</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -10950,30 +10514,28 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON and NS3</t>
+          <t>LoRa devices are present in the NS-3 code, but not defined in JSON blueprint</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10998,17 +10560,15 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>2</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>7 WiFi devices in JSON, WiFi module included in NS3</t>
+          <t>WiFi devices are present in both NS-3 code and JSON blueprint</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -11016,12 +10576,12 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -11046,30 +10606,28 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>3</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>No explicit location assignment in NS3 code</t>
+          <t>Location assignments for both LoRa gateways and WiFi stations are roughly matching</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11094,30 +10652,28 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>4</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>No traffic configuration present in NS3 code</t>
+          <t>Traffic duration and type for WiFi stations in JSON blueprint are matching with the NS-3 code</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>codellama/CodeLlama-7b-Instruct-hf</t>
+          <t>mistral-large-2411</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>large</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11142,17 +10698,15 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>LoRa devices number match</t>
+          <t>No LoRa devices specified in the JSON blueprint, hence it's matching with NS-3 code</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -11190,17 +10744,15 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>2</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>WiFi devices number match</t>
+          <t>WiFi devices in JSON blueprint and NS-3 code match in number and type</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -11238,17 +10790,15 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>3</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Location assignment match, AP and STA coordinates are correct</t>
+          <t>Location assignments match between JSON blueprint and NS-3 code via the distance from the AP</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -11286,17 +10836,15 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>4</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Traffic duration and type match</t>
+          <t>Traffic duration and type match between JSON blueprint and NS-3 code (duration 2700, 1800, 1500, 300, 1800, 1200 and type TCP, UDP, TCP, UDP, TCP, UDP, TCP respectively, considering that NS3 code use an onoff app, duration is deduced by start and stop times)</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -11334,13 +10882,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -11382,17 +10928,15 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>2</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Number of WiFi AP and STA devices matches in JSON and NS3</t>
+          <t>WiFi devices number match</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -11430,17 +10974,15 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>3</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Location (distance in meters) assignment matches between JSON and NS3</t>
+          <t>Location of wifi devices matches</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -11478,17 +11020,15 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>4</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Traffic duration and type matches between JSON and NS3</t>
+          <t>Traffic duration and type match</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -11526,17 +11066,15 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>No LoRa devices in both JSON and NS3</t>
+          <t>No LoRa devices are present in both JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -11544,7 +11082,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -11574,17 +11112,15 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>2</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Number of WiFi devices match, 1 AP and 7 STAs in both</t>
+          <t>WiFi devices in JSON match those in NS-3 code (4 STAs, 1 AP)</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -11592,7 +11128,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -11622,17 +11158,15 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>3</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Location of WiFi devices match</t>
+          <t>Location assignment in JSON (distances from AP) is correctly translated to coordinates in NS-3 code</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -11640,7 +11174,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -11670,17 +11204,15 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>4</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Traffic duration and type match for all WiFi STAs</t>
+          <t>Traffic durations, types (TCP/UDP), and start times match in JSON and NS-3</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -11688,7 +11220,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>mistral-large-2411</t>
+          <t>gemini-exp-1206</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -11718,17 +11250,15 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON and NS-3</t>
+          <t>No LoRa devices in JSON and NS3</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -11766,17 +11296,15 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>2</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Number of WiFi devices match</t>
+          <t>WiFi devices in JSON match with devices in NS3</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -11814,17 +11342,15 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>3</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Location of all devices match</t>
+          <t>Location (distance) of nodes in JSON match the coordinates in NS3</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -11862,17 +11388,15 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>4</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Traffic duration and type match</t>
+          <t>Traffic duration and type for each station in JSON match the NS3 configuration</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -11910,17 +11434,15 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON, no LoRa in NS3</t>
+          <t>No LoRa devices in blueprint or source code</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -11958,17 +11480,15 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>2</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>7 WiFi Stations and 2 AP in JSON, 7 WiFi Stations and 2 AP in NS3</t>
+          <t>WiFi devices count match and are present both in blueprint and source code</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -12006,21 +11526,19 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>3</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Location (distance in meters) match between JSON and NS3 code</t>
+          <t>Location assignment matches, with some small differences in blueprint (distance) and source-code (coordinates)</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -12054,21 +11572,19 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>4</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Traffic duration and type match JSON definition</t>
+          <t>Traffic duration and type match, throughput is mapped with datarate with some differences (max throughput)</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -12102,25 +11618,23 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>No LoRa devices in JSON blueprint, so match with NS-3 code</t>
+          <t>No LoRa devices specified in JSON blueprint, but LoRa code present</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -12150,17 +11664,15 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>2</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Number of WiFi devices match in JSON and NS-3</t>
+          <t>WiFi devices count and configuration match</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -12168,7 +11680,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -12198,25 +11710,23 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>3</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Location defined in JSON (distance) and NS3 are matching</t>
+          <t>Location assignment for WiFi AP and STAs is present in the code, but the distances specified in the JSON are not directly used in the NS3 location assignment.</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -12246,17 +11756,15 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>001-smart_home</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>4</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Traffic duration and type are correctly implemented in NS-3, with minor issues (see below)</t>
+          <t>Traffic duration and type match but not the trasmission rate at maximum throughput for ST-001 and SLB-001</t>
         </is>
       </c>
       <c r="E247" t="n">
@@ -12264,7 +11772,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>gemini-exp-1206</t>
+          <t>gemini-2.0-flash-exp</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -12294,17 +11802,15 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>1</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>LoRa devices not present in JSON but present in NS-3</t>
+          <t>JSON has no LoRa devices, NS-3 code has LoRa devices</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -12342,17 +11848,15 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>2</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>WiFi devices number match between JSON and NS-3</t>
+          <t>WiFi devices match in type and number</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -12390,21 +11894,19 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>3</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Location of WiFi AP and STA are partially matching with  JSON BLUEPRINT</t>
+          <t>Location assignment matches, considering relative distance in JSON</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -12438,17 +11940,15 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>001-smart_home</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>002-smart_home</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>4</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Traffic duration and type match between JSON and NS-3</t>
+          <t xml:space="preserve">Traffic duration and type matches for all the devices </t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -12486,21 +11986,19 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>LoRa devices are not present in JSON, but present in NS-3 code.</t>
+          <t>LoRa devices are present in the NS-3 code and no configuration is missing from JSON</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -12534,17 +12032,15 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>2</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>WiFi devices number in JSON (2 AP, 7 STA) match with NS-3 code (2 AP, 7 STA)</t>
+          <t>WiFi devices are present in both JSON and NS-3 code</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -12582,21 +12078,19 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>3</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Location assignment of WiFi devices in NS-3 code match the location provided in JSON, the coordinates are not exaclty in the provided location but are near that</t>
+          <t>Location assignment matches in both sides using ListPositionAllocator for Gateways and WiFi AP and all the WiFi stations are deployed on a specific location</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -12630,17 +12124,15 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>002-smart_home</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
+          <t>003-smart_home</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>4</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Traffic duration and type for all WiFi devices match with the JSON configuration</t>
+          <t>Traffic duration, throughput and type (TCP/UDP) are present and correctly implemented for WiFi stations</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -12667,198 +12159,6 @@
         </is>
       </c>
       <c r="J255" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>feature_n.1</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>LoRa devices match</t>
-        </is>
-      </c>
-      <c r="E256" t="n">
-        <v>5</v>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>simulated</t>
-        </is>
-      </c>
-      <c r="I256" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>feature_n.2</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>WiFi devices match</t>
-        </is>
-      </c>
-      <c r="E257" t="n">
-        <v>5</v>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>simulated</t>
-        </is>
-      </c>
-      <c r="I257" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>feature_n.3</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>Location assignments match, with only one location for gateway and AP, and all the stations are placed in same (fixed) location</t>
-        </is>
-      </c>
-      <c r="E258" t="n">
-        <v>4</v>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>simulated</t>
-        </is>
-      </c>
-      <c r="I258" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="J258" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>003-smart_home</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>feature_n.4</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>Traffic duration and type match</t>
-        </is>
-      </c>
-      <c r="E259" t="n">
-        <v>5</v>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>simulated</t>
-        </is>
-      </c>
-      <c r="I259" t="inlineStr">
-        <is>
-          <t>gemini-2.0-flash-exp</t>
-        </is>
-      </c>
-      <c r="J259" t="inlineStr">
         <is>
           <t>large</t>
         </is>

--- a/output/validator/simulated-results.xlsx
+++ b/output/validator/simulated-results.xlsx
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -7018,7 +7018,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -7618,7 +7618,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -8768,7 +8768,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -9718,7 +9718,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -10518,7 +10518,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -10618,7 +10618,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -10668,7 +10668,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -10868,7 +10868,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -11218,7 +11218,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
